--- a/medicine/Pharmacie/Diclofénac/Diclofénac.xlsx
+++ b/medicine/Pharmacie/Diclofénac/Diclofénac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Diclof%C3%A9nac</t>
+          <t>Diclofénac</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le diclofénac Écouter est un dérivé arylacétique, produit qui entre dans la classe des anti-inflammatoires non stéroïdiens (AINS) et qui est largement diffusé dans la pharmacopée mondiale sous diverses appellations. 
 Au Canada, aux États-Unis, en Grèce et au Royaume-Uni, il est commercialisé sous le nom de Pennsaid, un produit développé par la compagnie canadienne Nuvo Research. En France, au Canada et aux États-Unis, il est aussi commercialisé sous le nom Voltaren (ou Voltarène) par GlaxoSmithKline. 
-Il a été très utilisé en médecine vétérinaire, mais suscite des controverses en raison de sa rémanence environnementale, à partir des cadavres d'animaux d'élevage (de vaches en particulier[4]). Il a ainsi intoxiqué de nombreux vautours et animaux nécrophages, conduisant certaines espèces au bord de la disparition[5],[6],[7] au Pakistan notamment[8] et sur tout le sous-continent indien[9],[10] — cas de l'extinction des vautours en Inde — où les vautours jouent un rôle sanitaire important en éliminant rapidement les cadavres.
+Il a été très utilisé en médecine vétérinaire, mais suscite des controverses en raison de sa rémanence environnementale, à partir des cadavres d'animaux d'élevage (de vaches en particulier). Il a ainsi intoxiqué de nombreux vautours et animaux nécrophages, conduisant certaines espèces au bord de la disparition au Pakistan notamment et sur tout le sous-continent indien, — cas de l'extinction des vautours en Inde — où les vautours jouent un rôle sanitaire important en éliminant rapidement les cadavres.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Diclof%C3%A9nac</t>
+          <t>Diclofénac</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Topique cutané acide
 Comprimé
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Diclof%C3%A9nac</t>
+          <t>Diclofénac</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Anti-inflammatoires, antirhumatismaux non stéroïdiens (code ATC : M01AB05).
 Le diclofénac est un anti-inflammatoire non stéroïdien dérivé de l'acide phénylacétique du groupe des acides arylcarboxyliques.
@@ -570,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Diclof%C3%A9nac</t>
+          <t>Diclofénac</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,9 +604,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ils sont essentiellement digestifs et sont communs aux autres anti-inflammatoires non stéroïdiens. La prise de diclofénac augmente le risque de survenue de maladies cardiovasculaires et d'insuffisance cardiaque[11]. Ainsi, le risque d'incident cardiovasculaire de personnes qui commencent leur traitement à base de diclofénac augmente de 50 % par rapport à celles qui ne prennent rien[12].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils sont essentiellement digestifs et sont communs aux autres anti-inflammatoires non stéroïdiens. La prise de diclofénac augmente le risque de survenue de maladies cardiovasculaires et d'insuffisance cardiaque. Ainsi, le risque d'incident cardiovasculaire de personnes qui commencent leur traitement à base de diclofénac augmente de 50 % par rapport à celles qui ne prennent rien.
 </t>
         </is>
       </c>
@@ -601,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Diclof%C3%A9nac</t>
+          <t>Diclofénac</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,7 +637,9 @@
           <t>Effets indésirables possibles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Accident thrombotique artériel
@@ -709,7 +729,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Diclof%C3%A9nac</t>
+          <t>Diclofénac</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +747,9 @@
           <t>Contre-indications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Au-delà de cinq mois de grossesse révolus.
 Antécédents d'allergie ou d'asthme déclenchés par la prise de diclofénac ou de substances d'activité proche, telles qu'autres AINS, aspirine.
@@ -739,7 +761,7 @@
 Enfant de moins de 16 kg, en raison du dosage inadapté de ce médicament.
 Antécédents de rectites ou de rectorragies (contre-indication liée à la voie d'administration) : suppositoires à 25 mg et à 100 mg.
 Troubles de l'hémostase ou traitement anticoagulant en cours ; contre-indication liée à la voie intramusculaire (solution injectable à 25 mg·ml-1).
-En France, l'Agence nationale de sécurité du médicament et des produits de santé (ANSM) indique le 22 août 2013 que les évaluations menées en 2012-2013 par le Comité des médicaments à usage humain (CHMP) contre-indiquent le diclofénac « chez les patients atteints d’insuffisance cardiaque avérée, de cardiopathie ischémique, d’artériopathie périphérique et/ou de maladie vasculaire cérébrale » et recommande que le traitement ne soit instauré qu'« après une évaluation du rapport bénéfice/risque chez les patients présentant des facteurs de risque cardiovasculaires (hypertension artérielle, hyperlipidémie, diabète sucré et tabagisme)[13],[14]. »
+En France, l'Agence nationale de sécurité du médicament et des produits de santé (ANSM) indique le 22 août 2013 que les évaluations menées en 2012-2013 par le Comité des médicaments à usage humain (CHMP) contre-indiquent le diclofénac « chez les patients atteints d’insuffisance cardiaque avérée, de cardiopathie ischémique, d’artériopathie périphérique et/ou de maladie vasculaire cérébrale » et recommande que le traitement ne soit instauré qu'« après une évaluation du rapport bénéfice/risque chez les patients présentant des facteurs de risque cardiovasculaires (hypertension artérielle, hyperlipidémie, diabète sucré et tabagisme),. »
 </t>
         </is>
       </c>
@@ -750,7 +772,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Diclof%C3%A9nac</t>
+          <t>Diclofénac</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -768,7 +790,9 @@
           <t>Métabolisme</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le diclofénac est métabolisé rapidement et pratiquement totalement, essentiellement au niveau du foie. L'excrétion est à la fois urinaire et fécale. La demi-vie d'élimination plasmatique du diclofénac inchangé se situe autour de 1 à 2 heures. La clairance plasmatique totale est d'environ 263 ml·min-1.
 </t>
@@ -781,7 +805,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Diclof%C3%A9nac</t>
+          <t>Diclofénac</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -799,12 +823,14 @@
           <t>Médecine vétérinaire et écotoxicologie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le diclofénac était largement utilisé pour le bétail en Asie du Sud dans les années 1990 ; son emploi a mené plusieurs espèces de vautours à la quasi-extinction comme le cas de l'extinction des vautours en Inde[5], ce qui a secondairement provoqué de graves problèmes sanitaires (prolifération des chiens errants et épidémie de rage…). Le diclofénac a aussi presque fait disparaitre le vautour de l’espèce Gyps en Asie du Sud[15].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le diclofénac était largement utilisé pour le bétail en Asie du Sud dans les années 1990 ; son emploi a mené plusieurs espèces de vautours à la quasi-extinction comme le cas de l'extinction des vautours en Inde, ce qui a secondairement provoqué de graves problèmes sanitaires (prolifération des chiens errants et épidémie de rage…). Le diclofénac a aussi presque fait disparaitre le vautour de l’espèce Gyps en Asie du Sud.
 L'ONU, via le PNUE a encadré la signature d'un Mémorandum d’Entente sur la conservation des oiseaux de proie migrateurs d’Afrique et d’Eurasie, qui « souligne le nombre important de rapaces migrateurs d’Afrique-Eurasie ayant un statut de conservation défavorable au niveau régional et/ou mondial résultant de l’empoisonnement qui, dans certains cas, est lié au braconnage d’espèces menacées telles les éléphants et les rhinocéros ».
-Et un Groupe de travail sur les vautours a été créé pour préparer un Plan d’action Vautours relatif à la conservation des 15 espèces de vautours migratrices du ‘vieux monde’ en vue du rétablissement d'un état de conservation favorable pour ces espèces avant 2029 (plan adopté par la Résolution 12.10)[16].
-Parmi les mesures visant à essayer de freiner en Asie la régression des vautours figurent des « restaurants pour vautours » qui sont des aires de nourrissage où les administrations et les éleveurs peuvent venir déposer les cadavres jugés assez « sains » pour les nourrir à moindre risque[17]. Un problème similaire existe en Afrique[18]. Les vautours fauves et percnoptères pyrénéens sont également menacés par ce médicament utilisé en Espagne[19].
+Et un Groupe de travail sur les vautours a été créé pour préparer un Plan d’action Vautours relatif à la conservation des 15 espèces de vautours migratrices du ‘vieux monde’ en vue du rétablissement d'un état de conservation favorable pour ces espèces avant 2029 (plan adopté par la Résolution 12.10).
+Parmi les mesures visant à essayer de freiner en Asie la régression des vautours figurent des « restaurants pour vautours » qui sont des aires de nourrissage où les administrations et les éleveurs peuvent venir déposer les cadavres jugés assez « sains » pour les nourrir à moindre risque. Un problème similaire existe en Afrique. Les vautours fauves et percnoptères pyrénéens sont également menacés par ce médicament utilisé en Espagne.
 </t>
         </is>
       </c>
@@ -815,7 +841,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Diclof%C3%A9nac</t>
+          <t>Diclofénac</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -833,9 +859,11 @@
           <t>Teneurs maximales en résidus</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Des résidus peuvent être présents dans la viande ou le lait. L'EMAE a pour l'Europe mis à jour ses recommandations en février 2009 pour les bovins et porcs[20] :
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Des résidus peuvent être présents dans la viande ou le lait. L'EMAE a pour l'Europe mis à jour ses recommandations en février 2009 pour les bovins et porcs :
 chez les bovins, les résidus de diclofénac ne devraient pas dépasser 5 μg/kg dans le muscle, 5 μg/kg dans le gras, 5 μg/kg dans le foie, 10 μg/kg dans le rein, 0,1 μg/kg dans le lait ;
 chez le porc, les résidus de diclofénac ne devraient pas dépasser 5 μg/kg dans le muscle, 1 μg/kg dans le gras et/ou la peau, 5 μg/kg dans le foie, 10 μg/kg dans le rein.</t>
         </is>
@@ -847,7 +875,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Diclof%C3%A9nac</t>
+          <t>Diclofénac</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -865,9 +893,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom « diclofénac » est dérive de son nom chimique : acide 2-(2,6-dichloranilino) phénylacétique. Il a d'abord été synthétisé par Alfred Sallmann et Rudolf Pfister, introduit sous le nom de Voltaren par Ciba-Geigy (aujourd'hui Novartis) en 1973[21].
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom « diclofénac » est dérive de son nom chimique : acide 2-(2,6-dichloranilino) phénylacétique. Il a d'abord été synthétisé par Alfred Sallmann et Rudolf Pfister, introduit sous le nom de Voltaren par Ciba-Geigy (aujourd'hui Novartis) en 1973.
 </t>
         </is>
       </c>
